--- a/figure/compare.xlsx
+++ b/figure/compare.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snake0/SJTUThesis-0.10/figure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A77535-5044-BF47-B193-6122198BF9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACBB2A8-1FAB-0D4B-A244-8F6F7D038061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65AF1A3F-811A-2D4B-A7AC-75F71564C6FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16800" xr2:uid="{65AF1A3F-811A-2D4B-A7AC-75F71564C6FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -579,20 +579,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -613,14 +599,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>CPU</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Utilization (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> Utilization (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10382,8 +10364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC9718D-E8F3-214E-BEC1-EBE3E0A01E94}">
   <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
